--- a/Excel/excelproj1.xlsx
+++ b/Excel/excelproj1.xlsx
@@ -20,18 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Java</t>
   </si>
   <si>
+    <t xml:space="preserve">javaee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ruby</t>
   </si>
   <si>
+    <t xml:space="preserve">ruby2</t>
+  </si>
+  <si>
     <t xml:space="preserve">C#</t>
   </si>
   <si>
+    <t xml:space="preserve">c++</t>
+  </si>
+  <si>
     <t xml:space="preserve">Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nodejs</t>
   </si>
 </sst>
 </file>
@@ -373,16 +385,16 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.4615384615385"/>
   </cols>
   <sheetData>
@@ -390,7 +402,9 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -398,9 +412,11 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -408,9 +424,11 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -418,9 +436,11 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
